--- a/data/trans_camb/P71_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,61</t>
+          <t>3,63; 12,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,64</t>
+          <t>1,4; 9,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,56</t>
+          <t>-5,16; 0,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,72</t>
+          <t>-4,52; 7,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,68</t>
+          <t>-5,69; 4,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -6,36</t>
+          <t>-14,55; -5,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,94</t>
+          <t>1,83; 9,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,65</t>
+          <t>-0,04; 6,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -2,84</t>
+          <t>-7,6; -2,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,33; 248,6</t>
+          <t>42,53; 247,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 190,07</t>
+          <t>12,33; 182,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 37,31</t>
+          <t>-60,36; 22,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 61,79</t>
+          <t>-29,03; 63,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 58,15</t>
+          <t>-34,28; 46,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,97; -56,9</t>
+          <t>-85,12; -56,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 113,1</t>
+          <t>14,74; 114,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 86,67</t>
+          <t>-1,19; 82,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,89; -35,48</t>
+          <t>-69,58; -34,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 6,2</t>
+          <t>-3,64; 6,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 15,28</t>
+          <t>3,81; 15,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -4,97</t>
+          <t>-13,06; -4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,67</t>
+          <t>-7,65; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 11,99</t>
+          <t>-0,27; 12,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -8,29</t>
+          <t>-17,57; -8,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,42</t>
+          <t>-4,72; 3,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 12,12</t>
+          <t>3,61; 11,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -7,68</t>
+          <t>-14,2; -7,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 60,41</t>
+          <t>-23,87; 62,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,07; 156,6</t>
+          <t>23,28; 152,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,34; -45,41</t>
+          <t>-82,77; -49,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 23,76</t>
+          <t>-34,61; 24,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 74,79</t>
+          <t>-1,55; 78,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,51; -50,3</t>
+          <t>-78,12; -50,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 24,33</t>
+          <t>-25,98; 22,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 84,33</t>
+          <t>21,02; 86,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,58; -57,04</t>
+          <t>-77,25; -56,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,94</t>
+          <t>13,81; 24,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 27,62</t>
+          <t>16,3; 27,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -0,61</t>
+          <t>-14,66; -0,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 16,42</t>
+          <t>-1,64; 15,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,75</t>
+          <t>1,7; 21,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -2,12</t>
+          <t>-17,54; -2,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,03</t>
+          <t>11,53; 20,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,17</t>
+          <t>15,36; 25,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -2,24</t>
+          <t>-14,94; -2,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,54; 187,92</t>
+          <t>77,18; 186,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>99,7; 216,3</t>
+          <t>92,41; 208,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,13; -5,19</t>
+          <t>-81,16; -5,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 102,11</t>
+          <t>-6,19; 89,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 131,54</t>
+          <t>6,69; 133,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -12,44</t>
+          <t>-65,42; -16,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>59,55; 137,15</t>
+          <t>59,74; 138,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,91; 165,66</t>
+          <t>84,6; 176,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,34; -13,26</t>
+          <t>-77,96; -14,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,17</t>
+          <t>11,99; 19,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 19,9</t>
+          <t>12,34; 20,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -4,12</t>
+          <t>-10,84; -3,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 16,24</t>
+          <t>6,06; 15,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 17,48</t>
+          <t>8,35; 18,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -8,26</t>
+          <t>-19,83; -8,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 17,05</t>
+          <t>11,14; 17,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,85</t>
+          <t>11,96; 17,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -6,64</t>
+          <t>-14,93; -6,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,03; 92,87</t>
+          <t>49,21; 92,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,87; 98,57</t>
+          <t>50,48; 94,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -19,23</t>
+          <t>-44,11; -17,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,07; 69,49</t>
+          <t>21,92; 67,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,26; 76,34</t>
+          <t>29,63; 79,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,77; -34,3</t>
+          <t>-73,47; -34,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,42; 76,56</t>
+          <t>44,34; 77,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,85; 79,96</t>
+          <t>47,34; 80,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,33; -30,1</t>
+          <t>-61,9; -30,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 14,47</t>
+          <t>0,93; 14,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,09</t>
+          <t>6,67; 19,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,45; -2,84</t>
+          <t>-15,79; -2,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,58</t>
+          <t>0,31; 11,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,44; 23,22</t>
+          <t>12,52; 23,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 17,08</t>
+          <t>-9,04; 16,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,76</t>
+          <t>2,09; 10,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,51; 20,16</t>
+          <t>11,2; 20,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 10,23</t>
+          <t>-9,45; 9,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,68; 49,14</t>
+          <t>2,66; 47,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,5; 67,47</t>
+          <t>17,27; 66,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,17; -8,09</t>
+          <t>-41,79; -8,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,96; 36,38</t>
+          <t>0,97; 37,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,47; 72,75</t>
+          <t>32,6; 73,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 53,12</t>
+          <t>-24,52; 49,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,29; 33,29</t>
+          <t>5,55; 32,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,12; 63,04</t>
+          <t>29,78; 63,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 31,75</t>
+          <t>-25,89; 29,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,32; 15,13</t>
+          <t>2,45; 15,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,11; 17,87</t>
+          <t>4,53; 17,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 11,65</t>
+          <t>-4,98; 10,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 2,88</t>
+          <t>-5,24; 2,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,32</t>
+          <t>-3,51; 4,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -11,07</t>
+          <t>-19,43; -11,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,12</t>
+          <t>-2,7; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,85</t>
+          <t>-1,21; 5,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -7,68</t>
+          <t>-15,76; -8,5</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,57; 165,22</t>
+          <t>15,78; 164,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>36,34; 199,83</t>
+          <t>30,91; 193,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 120,89</t>
+          <t>-40,22; 108,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 9,42</t>
+          <t>-15,25; 9,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 13,96</t>
+          <t>-10,23; 14,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -35,94</t>
+          <t>-56,41; -36,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 15,49</t>
+          <t>-8,8; 14,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 21,53</t>
+          <t>-3,83; 20,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-51,24; -28,85</t>
+          <t>-52,1; -30,97</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,51</t>
+          <t>10,25; 14,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,59</t>
+          <t>13,33; 17,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -4,15</t>
+          <t>-8,97; -4,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,92</t>
+          <t>1,4; 5,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,38</t>
+          <t>5,83; 10,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -5,33</t>
+          <t>-14,38; -5,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,66</t>
+          <t>6,4; 9,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,23</t>
+          <t>10,13; 13,32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -5,79</t>
+          <t>-10,65; -5,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>54,45; 84,95</t>
+          <t>54,68; 86,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>70,27; 103,27</t>
+          <t>69,1; 103,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -23,69</t>
+          <t>-48,3; -23,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,0; 22,18</t>
+          <t>4,79; 22,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,71; 38,83</t>
+          <t>20,15; 38,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,47; -15,09</t>
+          <t>-50,21; -20,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>26,26; 43,53</t>
+          <t>27,37; 43,11</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,39; 59,46</t>
+          <t>42,32; 60,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-45,41; -25,19</t>
+          <t>-45,52; -21,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
